--- a/1_pca/estudo_composicoes/_out/output/cargas_fatoriais_comunalidades.xlsx
+++ b/1_pca/estudo_composicoes/_out/output/cargas_fatoriais_comunalidades.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,11 @@
           <t>X2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Comunalidade</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -376,6 +381,9 @@
       <c r="B2">
         <v>0.007608489612936492</v>
       </c>
+      <c r="C2">
+        <v>0.9644676812506977</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -384,6 +392,9 @@
       <c r="B3">
         <v>-0.282252475504173</v>
       </c>
+      <c r="C3">
+        <v>0.9688903330981439</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -392,6 +403,9 @@
       <c r="B4">
         <v>0.3406966240797436</v>
       </c>
+      <c r="C4">
+        <v>0.3005697497351301</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -400,6 +414,9 @@
       <c r="B5">
         <v>0.1507497080675007</v>
       </c>
+      <c r="C5">
+        <v>0.2261458903130533</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -408,6 +425,9 @@
       <c r="B6">
         <v>0.1062350282720081</v>
       </c>
+      <c r="C6">
+        <v>0.9718173249614063</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -416,6 +436,9 @@
       <c r="B7">
         <v>-0.2705940030190436</v>
       </c>
+      <c r="C7">
+        <v>0.925535308298395</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -424,6 +447,9 @@
       <c r="B8">
         <v>-0.3802455216954467</v>
       </c>
+      <c r="C8">
+        <v>0.946259430321457</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -432,6 +458,9 @@
       <c r="B9">
         <v>-0.4469187272055803</v>
       </c>
+      <c r="C9">
+        <v>0.8848494532891355</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -440,6 +469,9 @@
       <c r="B10">
         <v>-0.4125470355883181</v>
       </c>
+      <c r="C10">
+        <v>0.9311389874603295</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -447,6 +479,9 @@
       </c>
       <c r="B11">
         <v>0.4891315852948291</v>
+      </c>
+      <c r="C11">
+        <v>0.9083164710251026</v>
       </c>
     </row>
   </sheetData>
